--- a/모임 장소 설문(응답) 수정.xlsx
+++ b/모임 장소 설문(응답) 수정.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B09F878-8DB2-48EB-82FE-84518138BBE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -85,12 +91,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,8 +104,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -145,15 +158,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -195,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +248,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,6 +300,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,14 +493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -511,7 +568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -579,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -647,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -715,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -783,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -851,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -919,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1055,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1123,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1191,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1259,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1327,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1395,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1463,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1531,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1599,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1667,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1735,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1803,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1871,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1940,6 +1997,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/모임 장소 설문(응답) 수정.xlsx
+++ b/모임 장소 설문(응답) 수정.xlsx
@@ -5,22 +5,384 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B09F878-8DB2-48EB-82FE-84518138BBE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14B539D-F387-4786-8E61-EDAC6B2FEE6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>김지현</author>
+  </authors>
+  <commentList>
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{4FA23E52-33DD-4B9D-BA20-E4BBFF1C0F24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김지현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:
+'</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셀수없이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>많이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>'</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관계로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>임의로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>부여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{5C8234D1-4121-44C1-9F08-00C46DF899E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김지현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>숫자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>안한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관계로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>임의로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>부여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>PA관 1층 (파관 라운지 / 파관 투썸 앞)</t>
   </si>
@@ -70,29 +432,60 @@
     <t>굿투데이</t>
   </si>
   <si>
-    <t>정문 스타벅스</t>
-  </si>
-  <si>
     <t>신촌 카페</t>
   </si>
   <si>
     <t>플리즈 커피</t>
   </si>
   <si>
-    <t>스터디 카페</t>
-  </si>
-  <si>
     <t>테이스트</t>
   </si>
   <si>
+    <t>뗴이야르관 8층 전자과 전용 스터디룸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다산관로비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디 카페</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정문 스타벅스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마관 5층휴게실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K관 1층카페</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>술탄커피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>모임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(방문모임수)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +508,42 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +553,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -147,15 +576,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -493,16 +972,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -553,22 +1034,37 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -635,8 +1131,23 @@
       <c r="V2">
         <v>0</v>
       </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -703,8 +1214,23 @@
       <c r="V3">
         <v>0</v>
       </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -771,8 +1297,23 @@
       <c r="V4">
         <v>0</v>
       </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -839,8 +1380,23 @@
       <c r="V5">
         <v>0</v>
       </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -907,8 +1463,23 @@
       <c r="V6">
         <v>0</v>
       </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -975,8 +1546,23 @@
       <c r="V7">
         <v>0</v>
       </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1043,8 +1629,23 @@
       <c r="V8">
         <v>0</v>
       </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1111,8 +1712,23 @@
       <c r="V9">
         <v>0</v>
       </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1179,8 +1795,23 @@
       <c r="V10">
         <v>0</v>
       </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1247,8 +1878,23 @@
       <c r="V11">
         <v>0</v>
       </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1315,8 +1961,23 @@
       <c r="V12">
         <v>0</v>
       </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1383,8 +2044,23 @@
       <c r="V13">
         <v>0</v>
       </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1451,8 +2127,23 @@
       <c r="V14">
         <v>0</v>
       </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1519,8 +2210,23 @@
       <c r="V15">
         <v>0</v>
       </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1587,8 +2293,23 @@
       <c r="V16">
         <v>0</v>
       </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1655,8 +2376,23 @@
       <c r="V17">
         <v>0</v>
       </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1723,8 +2459,23 @@
       <c r="V18">
         <v>0</v>
       </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1791,8 +2542,23 @@
       <c r="V19">
         <v>0</v>
       </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1859,8 +2625,23 @@
       <c r="V20">
         <v>0</v>
       </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1927,8 +2708,23 @@
       <c r="V21">
         <v>1</v>
       </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1993,6 +2789,851 @@
         <v>0</v>
       </c>
       <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>8</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>8</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
         <v>0</v>
       </c>
     </row>
@@ -2000,5 +3641,194 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AAD93D-3268-4BB3-B150-E33D629B92FD}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5">
+        <v>4</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3</v>
+      </c>
+      <c r="N2" s="5">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1</v>
+      </c>
+      <c r="T2" s="5">
+        <v>1</v>
+      </c>
+      <c r="U2" s="5">
+        <v>1</v>
+      </c>
+      <c r="V2" s="5">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5">
+        <v>1</v>
+      </c>
+      <c r="X2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:Z2">
+    <sortCondition descending="1" ref="D2"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/모임 장소 설문(응답) 수정.xlsx
+++ b/모임 장소 설문(응답) 수정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14B539D-F387-4786-8E61-EDAC6B2FEE6A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F1D9B2-23D2-4F48-BBF9-B46047A70258}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3650,7 +3650,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3666,10 +3666,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -3748,11 +3748,11 @@
       <c r="B2" s="5">
         <v>17</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5">
         <v>14</v>
-      </c>
-      <c r="D2" s="4">
-        <v>15</v>
       </c>
       <c r="E2" s="5">
         <v>12</v>
@@ -3825,9 +3825,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:Z2">
-    <sortCondition descending="1" ref="D2"/>
-  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/모임 장소 설문(응답) 수정.xlsx
+++ b/모임 장소 설문(응답) 수정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김지현\filling-good\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\강의 등\github\filling good\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F1D9B2-23D2-4F48-BBF9-B46047A70258}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9608009-DE32-48FD-9AD6-220F2F53082D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>PA관 1층 (파관 라운지 / 파관 투썸 앞)</t>
   </si>
@@ -478,6 +478,14 @@
   </si>
   <si>
     <t>장소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS관 로비(AS관 5층 공대 휴게실)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈 강의실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -973,15 +981,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1230,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1479,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1562,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1728,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1811,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1894,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1977,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2143,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2226,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2392,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2475,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2558,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2641,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2724,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2890,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2973,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3056,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3139,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3222,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -3305,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -3388,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3471,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -3554,7 +3563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -3634,6 +3643,89 @@
         <v>0</v>
       </c>
       <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
         <v>0</v>
       </c>
     </row>
@@ -3649,16 +3741,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AAD93D-3268-4BB3-B150-E33D629B92FD}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.296875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3684,10 +3778,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
@@ -3741,7 +3835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -3749,13 +3843,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5">
         <v>14</v>
       </c>
       <c r="E2" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5">
         <v>11</v>
@@ -3767,7 +3861,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="5">
         <v>5</v>
@@ -3827,5 +3921,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>